--- a/Child cases UPDATED.xlsx
+++ b/Child cases UPDATED.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliay\sa3dny2\sa3dny_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D86A69-502E-4000-B18A-87815607F569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439BD17-FD4B-4B43-AA3D-245F2E722634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1164" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Child cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0">'Child cases'!$A$1:$H$71</definedName>
+    <definedName name="ExternalData_2" localSheetId="0">'Child cases'!$A$1:$H$70</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,7 +28,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="183">
   <si>
     <t>No.</t>
   </si>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>29/3/2015</t>
-  </si>
-  <si>
-    <t>AL helmya</t>
-  </si>
-  <si>
-    <t>24/2/2009</t>
   </si>
   <si>
     <t>Ali</t>
@@ -702,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,9 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,9 +802,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:I113">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H114">
-    <sortCondition sortBy="cellColor" ref="A2:A114" dxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:I112">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H113">
+    <sortCondition sortBy="cellColor" ref="A2:A113" dxfId="1"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No."/>
@@ -1031,23 +1022,23 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="49.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
     <col min="9" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,10 +1064,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1106,7 +1097,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1136,7 +1127,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1162,12 +1153,12 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1">
         <v>16</v>
@@ -1176,25 +1167,25 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G5" s="9">
         <v>2008</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>42677</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1">
         <v>9</v>
@@ -1212,10 +1203,10 @@
         <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1241,7 +1232,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1267,7 +1258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1293,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1319,7 +1310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1345,29 +1336,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="1"/>
@@ -1375,21 +1366,21 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1397,23 +1388,23 @@
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
+      <c r="H13" s="2">
+        <v>42008</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -1428,28 +1419,28 @@
         <v>10</v>
       </c>
       <c r="H14" s="2">
-        <v>42008</v>
+        <v>43108</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -1458,22 +1449,22 @@
         <v>10</v>
       </c>
       <c r="H15" s="2">
-        <v>43108</v>
+        <v>41798</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -1487,23 +1478,23 @@
       <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="2">
-        <v>41798</v>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1517,26 +1508,26 @@
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>40</v>
+      <c r="H17" s="2">
+        <v>42005</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1">
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1548,25 +1539,25 @@
         <v>10</v>
       </c>
       <c r="H18" s="2">
-        <v>42005</v>
+        <v>40909</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1578,207 +1569,206 @@
         <v>10</v>
       </c>
       <c r="H19" s="2">
-        <v>40909</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>37687</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="1">
-        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="2">
-        <v>37687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
         <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1997</v>
+      </c>
+      <c r="H21" s="2">
+        <v>37624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H22" s="2">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1">
         <v>13</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1997</v>
-      </c>
-      <c r="H22" s="2">
-        <v>37624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1">
-        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H23" s="2">
-        <v>42071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="1">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7">
+        <v>42045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="7">
-        <v>42045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>61</v>
@@ -1789,42 +1779,43 @@
       <c r="G27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>42653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2">
+        <v>41618</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2">
-        <v>42653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="1">
         <v>14</v>
@@ -1832,108 +1823,107 @@
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="2">
         <v>41618</v>
       </c>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="1">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2">
-        <v>41618</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1990</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G31" s="1">
-        <v>1990</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2002</v>
+      </c>
+      <c r="H31" s="2">
+        <v>43468</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2002</v>
-      </c>
-      <c r="H32" s="2">
-        <v>43468</v>
-      </c>
-      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -1942,30 +1932,30 @@
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>2008</v>
+      </c>
+      <c r="H33" s="2">
+        <v>40239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="C34" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -1974,155 +1964,155 @@
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="1">
-        <v>2008</v>
-      </c>
-      <c r="H34" s="2">
-        <v>40239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="1">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H37" s="2">
+        <v>40523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="H38" s="2">
-        <v>40523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1">
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G39" s="1">
-        <v>1992</v>
-      </c>
-      <c r="H39" s="2">
-        <v>35065</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1993</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>40</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>85</v>
+        <v>41</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -2130,45 +2120,45 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>86</v>
+      <c r="F40" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G40" s="1">
-        <v>1993</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+      <c r="H40" s="2">
+        <v>42347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>41</v>
-      </c>
-      <c r="B41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G41" s="1">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="H41" s="2">
-        <v>42347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>90</v>
@@ -2177,149 +2167,150 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="F42" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="G42" s="1">
-        <v>1995</v>
-      </c>
-      <c r="H42" s="2">
-        <v>40544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2004</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="G43" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+      <c r="H43" s="2">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2014</v>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H44" s="2">
-        <v>43225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="2">
-        <v>43711</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="7">
+        <v>40850</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="1">
-        <v>20</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="7">
-        <v>40850</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2336,15 +2327,15 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
@@ -2358,10 +2349,9 @@
       <c r="G48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="1"/>
+      <c r="H48" s="7">
+        <v>42461</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2376,129 +2366,129 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="1">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="1">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="7">
-        <v>42461</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="7">
+        <v>41466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="1">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="1">
-        <v>20</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="7">
-        <v>41466</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I52" s="1"/>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
+      <c r="E53" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -2506,25 +2496,26 @@
       <c r="G53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="2">
+        <v>41640</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C54" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -2533,193 +2524,193 @@
         <v>10</v>
       </c>
       <c r="H54" s="2">
-        <v>41640</v>
-      </c>
-      <c r="I54" s="1"/>
+        <v>40911</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="1">
-        <v>17</v>
-      </c>
       <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="1">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="2">
-        <v>40911</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>56</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C57" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C58" s="1">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="2">
+        <v>44153</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1">
         <v>16</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="1">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="2">
-        <v>44153</v>
+      <c r="H59" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>124</v>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="2">
+        <v>40544</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="1">
-        <v>19</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
@@ -2727,83 +2718,82 @@
         <v>10</v>
       </c>
       <c r="H61" s="2">
-        <v>40544</v>
-      </c>
-      <c r="I61" s="1"/>
+        <v>40974</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C62" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="2">
-        <v>40974</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="1">
-        <v>17</v>
+      <c r="C63" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G64" s="1">
         <v>2011</v>
@@ -2812,15 +2802,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>45</v>
+      <c r="C65" s="1">
+        <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -2829,255 +2819,255 @@
         <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G65" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C66" s="1">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="1">
         <v>13</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="2">
+        <v>42166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="11">
+        <v>15</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="1">
         <v>2009</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>67</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="1">
-        <v>9</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>68</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="1">
+      <c r="H68" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="1">
+        <v>14</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="2">
-        <v>42166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>69</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="11">
-        <v>15</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G69" s="1">
-        <v>2009</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2010</v>
+      </c>
+      <c r="H69" s="2">
+        <v>41641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C70" s="1">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>27</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="1">
         <v>14</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="2">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1">
         <v>13</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G70" s="1">
+      <c r="D73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="1">
         <v>2010</v>
       </c>
-      <c r="H70" s="2">
-        <v>41641</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>71</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="1">
-        <v>10</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>27</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="1">
-        <v>14</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="2">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="H73" s="2">
+        <v>41336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="1">
         <v>20</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="1">
-        <v>13</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G74" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H74" s="2">
-        <v>41336</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1999</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="1">
         <v>20</v>
@@ -3085,202 +3075,188 @@
       <c r="D75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>10</v>
+      <c r="E75" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G75" s="1">
-        <v>1999</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2004</v>
+      </c>
+      <c r="H75" s="2">
+        <v>40334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G76" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H76" s="2">
-        <v>40334</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C77" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>163</v>
+      <c r="G77" s="1">
+        <v>2009</v>
+      </c>
+      <c r="H77" s="2">
+        <v>42527</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C78" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="1">
-        <v>2009</v>
-      </c>
-      <c r="H78" s="2">
-        <v>42527</v>
-      </c>
-      <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C79" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="1">
+        <v>17</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C80" s="1">
-        <v>9</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G80" s="12">
-        <v>2014</v>
+      <c r="F80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2007</v>
       </c>
       <c r="H80" s="2">
-        <v>43168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42101</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="1">
-        <v>17</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G81" s="1">
-        <v>2007</v>
-      </c>
-      <c r="H81" s="2">
-        <v>42101</v>
-      </c>
-      <c r="I81" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="2"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="4"/>
+      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3290,9 +3266,9 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3302,9 +3278,9 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3314,9 +3290,9 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3326,9 +3302,9 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3338,9 +3314,9 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3350,9 +3326,9 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3362,9 +3338,9 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3374,9 +3350,9 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3386,9 +3362,9 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3398,9 +3374,9 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3410,9 +3386,9 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3422,9 +3398,9 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3434,9 +3410,9 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3446,9 +3422,9 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3458,9 +3434,9 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3470,9 +3446,9 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3482,9 +3458,9 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3494,9 +3470,9 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3506,9 +3482,9 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3518,9 +3494,9 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3530,9 +3506,9 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3542,9 +3518,9 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3554,9 +3530,9 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3566,9 +3542,9 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3578,9 +3554,9 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3590,9 +3566,9 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3602,9 +3578,9 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3614,10 +3590,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
+    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3626,26 +3599,27 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="3"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="3"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3655,7 +3629,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3665,7 +3639,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3675,7 +3649,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3685,7 +3659,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3695,7 +3669,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3705,7 +3679,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3715,7 +3689,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3725,7 +3699,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3735,7 +3709,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3745,7 +3719,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3755,7 +3729,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3765,7 +3739,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3775,7 +3749,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3785,7 +3759,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3795,7 +3769,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3805,7 +3779,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3815,7 +3789,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3825,7 +3799,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3835,7 +3809,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3845,7 +3819,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3855,7 +3829,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3865,7 +3839,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3875,7 +3849,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3885,7 +3859,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3895,7 +3869,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3905,7 +3879,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3915,7 +3889,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3925,7 +3899,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3935,7 +3909,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3945,7 +3919,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3955,7 +3929,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3965,7 +3939,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3975,7 +3949,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3985,7 +3959,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3995,7 +3969,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4005,7 +3979,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4015,7 +3989,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4025,7 +3999,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4035,7 +4009,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4045,7 +4019,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4055,7 +4029,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4065,7 +4039,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4075,7 +4049,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4085,7 +4059,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4095,7 +4069,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4105,7 +4079,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4115,7 +4089,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4125,7 +4099,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4135,7 +4109,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4145,7 +4119,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4155,7 +4129,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4165,7 +4139,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4175,7 +4149,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4185,7 +4159,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4195,7 +4169,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4205,7 +4179,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4215,7 +4189,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4225,7 +4199,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4235,7 +4209,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4245,7 +4219,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4255,7 +4229,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4265,7 +4239,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4275,7 +4249,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4285,7 +4259,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4295,7 +4269,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4305,7 +4279,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4315,7 +4289,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4325,7 +4299,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4335,7 +4309,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4345,7 +4319,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4355,7 +4329,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4365,7 +4339,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4375,7 +4349,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4385,7 +4359,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4395,7 +4369,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4405,7 +4379,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4415,7 +4389,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4425,7 +4399,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4435,7 +4409,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4445,7 +4419,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4455,7 +4429,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4465,7 +4439,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4475,7 +4449,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4485,7 +4459,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4495,7 +4469,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4505,7 +4479,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4515,7 +4489,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4525,7 +4499,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4535,7 +4509,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4545,7 +4519,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -4555,7 +4529,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4565,7 +4539,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -4575,7 +4549,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4585,7 +4559,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4595,7 +4569,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4605,7 +4579,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4615,7 +4589,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4625,7 +4599,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4635,7 +4609,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4645,7 +4619,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4655,7 +4629,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4665,7 +4639,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4675,7 +4649,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4685,7 +4659,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4695,7 +4669,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -4705,7 +4679,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4715,7 +4689,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -4725,7 +4699,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -4735,7 +4709,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4745,7 +4719,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -4755,7 +4729,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -4765,7 +4739,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -4775,7 +4749,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -4785,7 +4759,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -4795,7 +4769,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4805,7 +4779,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -4815,7 +4789,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -4825,7 +4799,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -4835,7 +4809,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -4845,7 +4819,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -4855,7 +4829,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -4865,7 +4839,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -4875,7 +4849,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -4885,7 +4859,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -4895,7 +4869,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -4905,7 +4879,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -4915,7 +4889,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4925,7 +4899,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -4935,7 +4909,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -4945,7 +4919,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -4955,7 +4929,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -4965,7 +4939,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -4975,7 +4949,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -4985,7 +4959,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -4995,7 +4969,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -5005,7 +4979,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -5015,7 +4989,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -5025,7 +4999,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -5035,7 +5009,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -5045,7 +5019,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -5055,7 +5029,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -5065,7 +5039,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -5075,7 +5049,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -5085,7 +5059,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -5095,7 +5069,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -5105,7 +5079,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -5115,7 +5089,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -5125,7 +5099,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -5135,7 +5109,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -5145,7 +5119,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -5155,7 +5129,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -5165,7 +5139,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -5175,7 +5149,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -5185,7 +5159,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -5195,7 +5169,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -5205,7 +5179,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -5215,7 +5189,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -5225,7 +5199,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -5235,7 +5209,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -5245,7 +5219,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -5255,7 +5229,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -5265,7 +5239,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -5275,7 +5249,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -5285,7 +5259,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -5295,7 +5269,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -5305,7 +5279,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -5315,7 +5289,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -5325,7 +5299,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -5335,7 +5309,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -5345,7 +5319,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -5355,7 +5329,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -5365,7 +5339,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -5375,7 +5349,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -5385,7 +5359,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -5395,7 +5369,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5405,7 +5379,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -5415,7 +5389,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -5425,7 +5399,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -5435,7 +5409,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -5445,7 +5419,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -5455,7 +5429,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -5465,7 +5439,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -5475,7 +5449,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -5485,7 +5459,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -5495,7 +5469,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -5505,7 +5479,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -5515,7 +5489,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -5525,7 +5499,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -5535,7 +5509,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -5545,7 +5519,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -5555,7 +5529,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -5565,7 +5539,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -5575,7 +5549,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -5585,7 +5559,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -5595,7 +5569,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -5605,7 +5579,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -5615,7 +5589,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -5625,7 +5599,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -5635,703 +5609,694 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
-      <c r="H313" s="1"/>
-    </row>
-    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
